--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npy-Npy2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npy-Npy2r.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.697137</v>
+        <v>1.319712</v>
       </c>
       <c r="H2">
-        <v>5.091411</v>
+        <v>3.959136</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2428133505763333</v>
+        <v>0.188814275168</v>
       </c>
       <c r="R2">
-        <v>2.185320155187</v>
+        <v>1.699328476512</v>
       </c>
       <c r="S2">
         <v>1</v>
